--- a/AAII_Financials/Yearly/UHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UHG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>UHG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -693,8 +693,8 @@
       <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
+      <c r="G7" s="2">
+        <v>43830</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
@@ -711,26 +711,26 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>477000</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>432900</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>327300</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>272200</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,17 +738,17 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>358200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>332300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>260100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>217100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -765,17 +765,17 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>67100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>55100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -866,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -887,25 +887,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4500</v>
+        <v>407900</v>
       </c>
       <c r="E17" s="3">
-        <v>1200</v>
+        <v>370700</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>291700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>243900</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -950,17 +950,17 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>69100</v>
       </c>
       <c r="E18" s="3">
-        <v>-1200</v>
+        <v>62200</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>35600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>28300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -990,17 +990,17 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>800</v>
       </c>
       <c r="E20" s="3">
-        <v>3900</v>
+        <v>700</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>300</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1018,25 +1018,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>70200</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>63200</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>39600</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+        <v>28800</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1045,16 +1045,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8100</v>
+        <v>69500</v>
       </c>
       <c r="E23" s="3">
-        <v>2700</v>
+        <v>62400</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>39000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>28300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,25 +1099,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7100</v>
+        <v>69500</v>
       </c>
       <c r="E26" s="3">
-        <v>2700</v>
+        <v>62400</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>39000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>28300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7100</v>
+        <v>69500</v>
       </c>
       <c r="E27" s="3">
-        <v>2700</v>
+        <v>62400</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>39000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>28300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1314,17 +1314,17 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
-        <v>-3900</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>-3800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-300</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7100</v>
+        <v>69500</v>
       </c>
       <c r="E33" s="3">
-        <v>2700</v>
+        <v>62400</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>39000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>28300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7100</v>
+        <v>69500</v>
       </c>
       <c r="E35" s="3">
-        <v>2700</v>
+        <v>62400</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>39000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>28300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1436,8 +1436,8 @@
       <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
+      <c r="G38" s="2">
+        <v>43830</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
@@ -1481,13 +1481,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>51500</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>29200</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1535,25 +1535,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1562,25 +1562,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>180200</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>95600</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1589,13 +1589,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1616,25 +1616,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1643,10 +1643,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>349200</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>345000</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1670,25 +1670,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1777,26 +1777,26 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1832,13 +1832,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>349200</v>
+        <v>208300</v>
       </c>
       <c r="E54" s="3">
-        <v>345500</v>
+        <v>202300</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>131600</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>22100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>28700</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>18800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1912,25 +1912,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1939,13 +1939,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4100</v>
+        <v>6200</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>3500</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>3700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1966,25 +1966,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1993,13 +1993,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>120800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>102500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>74800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2020,25 +2020,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>20900</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2128,13 +2128,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6000</v>
+        <v>149300</v>
       </c>
       <c r="E66" s="3">
-        <v>21200</v>
+        <v>135700</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>97400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5400</v>
+        <v>100300</v>
       </c>
       <c r="E72" s="3">
-        <v>-20600</v>
+        <v>83600</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>54700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,13 +2384,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>343200</v>
+        <v>59000</v>
       </c>
       <c r="E76" s="3">
-        <v>324400</v>
+        <v>66600</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>34200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2451,8 +2451,8 @@
       <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
+      <c r="G80" s="2">
+        <v>43830</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7100</v>
+        <v>69500</v>
       </c>
       <c r="E81" s="3">
-        <v>2700</v>
+        <v>62400</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>39000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>28300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,25 +2510,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2672,16 +2672,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1300</v>
+        <v>34600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1400</v>
+        <v>58300</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>71800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>24200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2712,25 +2712,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2793,16 +2793,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>900</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-345000</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2941,16 +2941,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>-73700</v>
       </c>
       <c r="E100" s="3">
-        <v>346600</v>
+        <v>-35600</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>-51400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-20300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2995,16 +2995,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>-39300</v>
       </c>
       <c r="E102" s="3">
-        <v>200</v>
+        <v>22300</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>19600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>3600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
